--- a/resultados/vazao_transferencias/vazao_alto_cotia.xlsx
+++ b/resultados/vazao_transferencias/vazao_alto_cotia.xlsx
@@ -412,7 +412,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Vazão captada da ETA</t>
+          <t>Vazão captada da ETA (m³/s)</t>
         </is>
       </c>
     </row>
@@ -9518,7 +9518,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2">
-        <v>45717</v>
+        <v>45747</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -9527,12 +9527,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>75,88</t>
+          <t>70,77</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -9542,12 +9542,12 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54,6</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9557,12 +9557,12 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,12</t>
         </is>
       </c>
     </row>
